--- a/data/trans_orig/IP22D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9128DF6B-6914-4713-AF71-7EE29DC6A939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8125C3B4-3BC8-4EE1-9DC3-DCA46E806323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A106EF30-F1F6-47B2-871B-DB62CD342DA2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3779EA2F-B388-4BEA-BB6D-E9C0E58B1479}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>87,96%</t>
   </si>
   <si>
-    <t>49,88%</t>
+    <t>54,79%</t>
   </si>
   <si>
     <t>87,71%</t>
   </si>
   <si>
-    <t>64,22%</t>
+    <t>66,52%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -107,13 +107,13 @@
     <t>12,04%</t>
   </si>
   <si>
-    <t>50,12%</t>
+    <t>45,21%</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>35,78%</t>
+    <t>33,48%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -143,55 +143,55 @@
     <t>42,95%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
   </si>
   <si>
     <t>47,38%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
   </si>
   <si>
     <t>44,69%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
   </si>
   <si>
     <t>52,76%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
   </si>
   <si>
     <t>52,62%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>52,71%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -203,13 +203,13 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>18,8%</t>
+    <t>21,68%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>11,39%</t>
+    <t>14,14%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -218,10 +218,10 @@
     <t>29,91%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -230,19 +230,19 @@
     <t>18,47%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>64,55%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -251,22 +251,22 @@
     <t>78,11%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>22,91%</t>
+    <t>29,33%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>17,15%</t>
+    <t>15,83%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -281,55 +281,55 @@
     <t>34,98%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
   </si>
   <si>
     <t>34,43%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>62,66%</t>
   </si>
   <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>63,69%</t>
   </si>
   <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -344,73 +344,73 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>16,87%</t>
+    <t>14,84%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>8,33%</t>
+    <t>7,63%</t>
   </si>
   <si>
     <t>41,7%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
   <si>
     <t>37,46%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
   </si>
   <si>
     <t>39,68%</t>
   </si>
   <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
   </si>
   <si>
     <t>55,51%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>61,2%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>58,22%</t>
   </si>
   <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>8,62%</t>
+    <t>8,85%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -419,25 +419,25 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,83%</t>
+    <t>4,7%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>5,72%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17B6740-BA48-4040-A9A0-A3C3AB6AC807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B324161-E6A9-4BBF-A5CF-B9192E0C6C12}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8125C3B4-3BC8-4EE1-9DC3-DCA46E806323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED97CB5-3F2A-4677-A843-94DEFEE08AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3779EA2F-B388-4BEA-BB6D-E9C0E58B1479}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0129DB7B-2F28-407C-9C55-5B02C7B3BED7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 6,56%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,49 +71,49 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>12,57%</t>
+    <t>12,01%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -122,12 +122,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>7,93%</t>
   </si>
   <si>
@@ -140,58 +140,58 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -200,73 +200,73 @@
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -278,163 +278,163 @@
     <t>12-15</t>
   </si>
   <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B324161-E6A9-4BBF-A5CF-B9192E0C6C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8923651-AA33-4C5C-8B22-CE799F02A285}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -970,10 +970,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>5214</v>
+        <v>6161</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -985,10 +985,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>5997</v>
+        <v>5537</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1003,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>11210</v>
+        <v>11697</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>821</v>
+        <v>724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1174,25 +1174,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7002</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
-        <v>5964</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
       <c r="I8" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>32</v>
@@ -1207,7 +1207,7 @@
         <v>23</v>
       </c>
       <c r="N8" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>32</v>
@@ -1227,10 +1227,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>5058</v>
+        <v>3957</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -1242,10 +1242,10 @@
         <v>36</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>3596</v>
+        <v>5479</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>37</v>
@@ -1260,7 +1260,7 @@
         <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>8653</v>
+        <v>9436</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>40</v>
@@ -1278,10 +1278,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>6213</v>
+        <v>4102</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>43</v>
@@ -1293,10 +1293,10 @@
         <v>45</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>3993</v>
+        <v>6539</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>46</v>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>10205</v>
+        <v>10641</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>49</v>
@@ -1341,7 +1341,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1380,40 +1380,40 @@
         <v>31</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>504</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>519</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>56</v>
@@ -1431,25 +1431,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8059</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="7">
         <v>17</v>
       </c>
-      <c r="D13" s="7">
-        <v>11775</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
       <c r="I13" s="7">
-        <v>7589</v>
+        <v>12537</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>32</v>
@@ -1464,7 +1464,7 @@
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>19363</v>
+        <v>20596</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>32</v>
@@ -1484,31 +1484,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="7">
         <v>7</v>
       </c>
-      <c r="D14" s="7">
-        <v>4609</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>4972</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -1517,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>4609</v>
+        <v>4972</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>63</v>
@@ -1535,40 +1535,40 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9507</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="7">
         <v>11</v>
       </c>
-      <c r="D15" s="7">
-        <v>9948</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="I15" s="7">
+        <v>10821</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="7">
-        <v>13</v>
-      </c>
-      <c r="I15" s="7">
-        <v>9550</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>24</v>
       </c>
       <c r="N15" s="7">
-        <v>19498</v>
+        <v>20328</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>70</v>
@@ -1586,40 +1586,40 @@
         <v>26</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>854</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>925</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>854</v>
+        <v>925</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>75</v>
@@ -1649,7 +1649,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9507</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="7">
         <v>19</v>
       </c>
-      <c r="D18" s="7">
-        <v>15412</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
       <c r="I18" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>32</v>
@@ -1721,7 +1721,7 @@
         <v>32</v>
       </c>
       <c r="N18" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>32</v>
@@ -1741,10 +1741,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>5493</v>
+        <v>10214</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>80</v>
@@ -1756,10 +1756,10 @@
         <v>82</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>7024</v>
+        <v>6339</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>83</v>
@@ -1774,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="N19" s="7">
-        <v>12518</v>
+        <v>16553</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>86</v>
@@ -1792,10 +1792,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D20" s="7">
-        <v>10210</v>
+        <v>12729</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>89</v>
@@ -1807,10 +1807,10 @@
         <v>91</v>
       </c>
       <c r="H20" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>12786</v>
+        <v>10857</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>92</v>
@@ -1825,7 +1825,7 @@
         <v>27</v>
       </c>
       <c r="N20" s="7">
-        <v>22995</v>
+        <v>23586</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>95</v>
@@ -1894,40 +1894,40 @@
         <v>31</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>594</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>103</v>
@@ -1945,25 +1945,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>26</v>
+      </c>
+      <c r="D23" s="7">
+        <v>23598</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="7">
         <v>16</v>
       </c>
-      <c r="D23" s="7">
-        <v>15703</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="7">
-        <v>26</v>
-      </c>
       <c r="I23" s="7">
-        <v>20404</v>
+        <v>17196</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>32</v>
@@ -1978,7 +1978,7 @@
         <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>36107</v>
+        <v>40794</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>32</v>
@@ -1998,10 +1998,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>20374</v>
+        <v>20332</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>105</v>
@@ -2013,10 +2013,10 @@
         <v>107</v>
       </c>
       <c r="H24" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I24" s="7">
-        <v>16616</v>
+        <v>22327</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>108</v>
@@ -2031,7 +2031,7 @@
         <v>55</v>
       </c>
       <c r="N24" s="7">
-        <v>36991</v>
+        <v>42659</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>111</v>
@@ -2049,10 +2049,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7">
-        <v>27121</v>
+        <v>27179</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>114</v>
@@ -2064,10 +2064,10 @@
         <v>116</v>
       </c>
       <c r="H25" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I25" s="7">
-        <v>27150</v>
+        <v>28942</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>117</v>
@@ -2082,7 +2082,7 @@
         <v>68</v>
       </c>
       <c r="N25" s="7">
-        <v>54271</v>
+        <v>56121</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>120</v>
@@ -2100,31 +2100,31 @@
         <v>26</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
-        <v>854</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>925</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>125</v>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>854</v>
+        <v>925</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>126</v>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>504</v>
+        <v>655</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>128</v>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>130</v>
@@ -2184,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>1098</v>
+        <v>1174</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>132</v>
@@ -2205,7 +2205,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="7">
-        <v>48854</v>
+        <v>48166</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>32</v>
@@ -2220,7 +2220,7 @@
         <v>63</v>
       </c>
       <c r="I28" s="7">
-        <v>44360</v>
+        <v>52713</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>32</v>
@@ -2235,7 +2235,7 @@
         <v>126</v>
       </c>
       <c r="N28" s="7">
-        <v>93214</v>
+        <v>100879</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>32</v>
